--- a/text.xlsx
+++ b/text.xlsx
@@ -29,7 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="116">
+  <si>
+    <t>name</t>
+  </si>
   <si>
     <t>ip</t>
   </si>
@@ -52,22 +55,328 @@
     <t>jenkinsPassword</t>
   </si>
   <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>192.168.196.12</t>
+    <t>lt-aftersale-service-test</t>
+  </si>
+  <si>
+    <t>192.168.1.112</t>
   </si>
   <si>
     <t>root</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>cheyunhua@</t>
-  </si>
-  <si>
-    <t>yunhua@123@@@@@</t>
+    <t>cheyunhua</t>
+  </si>
+  <si>
+    <t>yunhua@12</t>
+  </si>
+  <si>
+    <t>lt-comment-service-test</t>
+  </si>
+  <si>
+    <t>192.168.1.21</t>
+  </si>
+  <si>
+    <t>yunhua@13</t>
+  </si>
+  <si>
+    <t>lt-content-service-test</t>
+  </si>
+  <si>
+    <t>192.168.1.22</t>
+  </si>
+  <si>
+    <t>yunhua@14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-coupon-service-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.219</t>
+  </si>
+  <si>
+    <t>yunhua@15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-customize-business-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.165</t>
+  </si>
+  <si>
+    <t>yunhua@16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-decorate-service-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.56</t>
+  </si>
+  <si>
+    <t>yunhua@17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-error-code-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.120</t>
+  </si>
+  <si>
+    <t>yunhua@18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-external-gateway-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.40</t>
+  </si>
+  <si>
+    <t>yunhua@19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-file-service-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.232</t>
+  </si>
+  <si>
+    <t>yunhua@20</t>
+  </si>
+  <si>
+    <t>yunhua@21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-gateway-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.150</t>
+  </si>
+  <si>
+    <t>yunhua@22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-mall-goods-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.189</t>
+  </si>
+  <si>
+    <t>yunhua@23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-mall-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.25</t>
+  </si>
+  <si>
+    <t>yunhua@24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-media-service-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.173</t>
+  </si>
+  <si>
+    <t>yunhua@25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-mp-release-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.162</t>
+  </si>
+  <si>
+    <t>yunhua@26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-omp-service-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.168</t>
+  </si>
+  <si>
+    <t>yunhua@27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-pay-service-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.154</t>
+  </si>
+  <si>
+    <t>yunhua@28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-profit-service-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.115</t>
+  </si>
+  <si>
+    <t>yunhua@29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-push-service-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.103</t>
+  </si>
+  <si>
+    <t>yunhua@30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-search-service-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.126</t>
+  </si>
+  <si>
+    <t>yunhua@31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-shipping-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.209</t>
+  </si>
+  <si>
+    <t>yunhua@32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-user-auth-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.61</t>
+  </si>
+  <si>
+    <t>yunhua@33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-user-center-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.43</t>
+  </si>
+  <si>
+    <t>yunhua@34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      lt-wechat-auth-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.244</t>
+  </si>
+  <si>
+    <t>yunhua@35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      root@192.168.196.128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.196.128</t>
+  </si>
+  <si>
+    <t>yunhua@36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.112</t>
+  </si>
+  <si>
+    <t>yunhua@37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.21</t>
+  </si>
+  <si>
+    <t>yunhua@38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.22</t>
+  </si>
+  <si>
+    <t>yunhua@39</t>
+  </si>
+  <si>
+    <t>yunhua@40</t>
+  </si>
+  <si>
+    <t>yunhua@41</t>
+  </si>
+  <si>
+    <t>yunhua@42</t>
+  </si>
+  <si>
+    <t>yunhua@43</t>
+  </si>
+  <si>
+    <t>yunhua@44</t>
+  </si>
+  <si>
+    <t>yunhua@45</t>
+  </si>
+  <si>
+    <t>yunhua@46</t>
+  </si>
+  <si>
+    <t>yunhua@47</t>
+  </si>
+  <si>
+    <t>yunhua@48</t>
+  </si>
+  <si>
+    <t>yunhua@49</t>
+  </si>
+  <si>
+    <t>yunhua@50</t>
+  </si>
+  <si>
+    <t>yunhua@51</t>
+  </si>
+  <si>
+    <t>yunhua@52</t>
+  </si>
+  <si>
+    <t>yunhua@53</t>
+  </si>
+  <si>
+    <t>yunhua@54</t>
+  </si>
+  <si>
+    <t>yunhua@55</t>
+  </si>
+  <si>
+    <t>yunhua@56</t>
+  </si>
+  <si>
+    <t>yunhua@57</t>
+  </si>
+  <si>
+    <t>yunhua@58</t>
+  </si>
+  <si>
+    <t>yunhua@59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.196.88</t>
+  </si>
+  <si>
+    <t>yunhua@60</t>
+  </si>
+  <si>
+    <t>yunhua@61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.54</t>
+  </si>
+  <si>
+    <t>yunhua@62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      192.168.1.48</t>
+  </si>
+  <si>
+    <t>yunhua@63</t>
   </si>
 </sst>
 </file>
@@ -683,14 +992,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,18 +1325,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="37.375" customWidth="1"/>
-    <col min="7" max="7" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="66" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="30.125" customWidth="1"/>
+    <col min="7" max="7" width="37.375" customWidth="1"/>
+    <col min="8" max="8" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1044,32 +1369,1178 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12212</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>123</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>126</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>127</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>128</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>129</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>130</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>131</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>132</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>133</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>134</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>135</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>136</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>137</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>138</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>139</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>140</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>141</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>142</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>143</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>144</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>145</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>146</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>147</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2">
+        <v>148</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2">
+        <v>149</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>150</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>151</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>152</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2">
+        <v>153</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2">
+        <v>154</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2">
+        <v>155</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2">
+        <v>156</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2">
+        <v>157</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2">
+        <v>158</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2">
+        <v>159</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
+        <v>160</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2">
+        <v>161</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2">
+        <v>162</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2">
+        <v>163</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2">
+        <v>164</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2">
+        <v>165</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2">
+        <v>166</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2">
+        <v>167</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="2">
+        <v>168</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="2">
+        <v>169</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="2">
+        <v>170</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="2">
+        <v>171</v>
+      </c>
+      <c r="G50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="2">
+        <v>172</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="2">
+        <v>173</v>
+      </c>
+      <c r="G52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2">
+        <v>174</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="yunhua@123@@@@@" tooltip="mailto:yunhua@123@@@@@"/>
+    <hyperlink ref="H2" r:id="rId1" display="yunhua@12" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="D3" r:id="rId2" display="124"/>
+    <hyperlink ref="D4" r:id="rId2" display="125"/>
+    <hyperlink ref="D5" r:id="rId2" display="126"/>
+    <hyperlink ref="D6" r:id="rId2" display="127"/>
+    <hyperlink ref="D7" r:id="rId2" display="128"/>
+    <hyperlink ref="D8" r:id="rId2" display="129"/>
+    <hyperlink ref="D9" r:id="rId2" display="130"/>
+    <hyperlink ref="D10" r:id="rId2" display="131"/>
+    <hyperlink ref="D11" r:id="rId2" display="132"/>
+    <hyperlink ref="D12" r:id="rId2" display="133"/>
+    <hyperlink ref="D13" r:id="rId2" display="134"/>
+    <hyperlink ref="D14" r:id="rId2" display="135"/>
+    <hyperlink ref="D15" r:id="rId2" display="136"/>
+    <hyperlink ref="D16" r:id="rId2" display="137"/>
+    <hyperlink ref="D17" r:id="rId2" display="138"/>
+    <hyperlink ref="D18" r:id="rId2" display="139"/>
+    <hyperlink ref="D19" r:id="rId2" display="140"/>
+    <hyperlink ref="D20" r:id="rId2" display="141"/>
+    <hyperlink ref="D21" r:id="rId2" display="142"/>
+    <hyperlink ref="D22" r:id="rId2" display="143"/>
+    <hyperlink ref="D23" r:id="rId2" display="144"/>
+    <hyperlink ref="D24" r:id="rId2" display="145"/>
+    <hyperlink ref="D25" r:id="rId2" display="146"/>
+    <hyperlink ref="D26" r:id="rId2" display="147"/>
+    <hyperlink ref="D27" r:id="rId2" display="148"/>
+    <hyperlink ref="D28" r:id="rId2" display="149"/>
+    <hyperlink ref="D29" r:id="rId2" display="150"/>
+    <hyperlink ref="D30" r:id="rId2" display="151"/>
+    <hyperlink ref="H3" r:id="rId1" display="yunhua@13" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H4" r:id="rId1" display="yunhua@14" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H5" r:id="rId1" display="yunhua@15" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H6" r:id="rId1" display="yunhua@16" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H7" r:id="rId1" display="yunhua@17" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H8" r:id="rId1" display="yunhua@18" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H9" r:id="rId1" display="yunhua@19" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H10" r:id="rId1" display="yunhua@20" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H11" r:id="rId1" display="yunhua@21" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H12" r:id="rId1" display="yunhua@22" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H13" r:id="rId1" display="yunhua@23" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H14" r:id="rId1" display="yunhua@24" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H15" r:id="rId1" display="yunhua@25" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H16" r:id="rId1" display="yunhua@26" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H17" r:id="rId1" display="yunhua@27" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H18" r:id="rId1" display="yunhua@28" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H19" r:id="rId1" display="yunhua@29" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H20" r:id="rId1" display="yunhua@30" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H21" r:id="rId1" display="yunhua@31" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H22" r:id="rId1" display="yunhua@32" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H23" r:id="rId1" display="yunhua@33" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H24" r:id="rId1" display="yunhua@34" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H25" r:id="rId1" display="yunhua@35" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H26" r:id="rId1" display="yunhua@36" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H27" r:id="rId1" display="yunhua@37" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H28" r:id="rId1" display="yunhua@38" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H29" r:id="rId1" display="yunhua@39" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H30" r:id="rId1" display="yunhua@40" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="D2" r:id="rId2" display="123"/>
+    <hyperlink ref="D31" r:id="rId2" display="152"/>
+    <hyperlink ref="D32" r:id="rId2" display="153"/>
+    <hyperlink ref="D33" r:id="rId2" display="154"/>
+    <hyperlink ref="D34" r:id="rId2" display="155"/>
+    <hyperlink ref="D35" r:id="rId2" display="156"/>
+    <hyperlink ref="D36" r:id="rId2" display="157"/>
+    <hyperlink ref="D37" r:id="rId2" display="158"/>
+    <hyperlink ref="D38" r:id="rId2" display="159"/>
+    <hyperlink ref="D39" r:id="rId2" display="160"/>
+    <hyperlink ref="D40" r:id="rId2" display="161"/>
+    <hyperlink ref="D41" r:id="rId2" display="162"/>
+    <hyperlink ref="D42" r:id="rId2" display="163"/>
+    <hyperlink ref="D43" r:id="rId2" display="164"/>
+    <hyperlink ref="D44" r:id="rId2" display="165"/>
+    <hyperlink ref="D45" r:id="rId2" display="166"/>
+    <hyperlink ref="D46" r:id="rId2" display="167"/>
+    <hyperlink ref="D47" r:id="rId2" display="168"/>
+    <hyperlink ref="D48" r:id="rId2" display="169"/>
+    <hyperlink ref="D49" r:id="rId2" display="170"/>
+    <hyperlink ref="D50" r:id="rId2" display="171"/>
+    <hyperlink ref="D51" r:id="rId2" display="172"/>
+    <hyperlink ref="D52" r:id="rId2" display="173"/>
+    <hyperlink ref="D53" r:id="rId2" display="174"/>
+    <hyperlink ref="H31" r:id="rId1" display="yunhua@41" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H32" r:id="rId1" display="yunhua@42" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H33" r:id="rId1" display="yunhua@43" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H34" r:id="rId1" display="yunhua@44" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H35" r:id="rId1" display="yunhua@45" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H36" r:id="rId1" display="yunhua@46" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H37" r:id="rId1" display="yunhua@47" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H38" r:id="rId1" display="yunhua@48" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H39" r:id="rId1" display="yunhua@49" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H40" r:id="rId1" display="yunhua@50" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H41" r:id="rId1" display="yunhua@51" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H42" r:id="rId1" display="yunhua@52" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H43" r:id="rId1" display="yunhua@53" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H44" r:id="rId1" display="yunhua@54" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H45" r:id="rId1" display="yunhua@55" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H46" r:id="rId1" display="yunhua@56" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H47" r:id="rId1" display="yunhua@57" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H48" r:id="rId1" display="yunhua@58" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H49" r:id="rId1" display="yunhua@59" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H50" r:id="rId1" display="yunhua@60" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H51" r:id="rId1" display="yunhua@61" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H52" r:id="rId1" display="yunhua@62" tooltip="mailto:yunhua@12"/>
+    <hyperlink ref="H53" r:id="rId1" display="yunhua@63" tooltip="mailto:yunhua@12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
